--- a/A2/WEKA DATA.xlsx
+++ b/A2/WEKA DATA.xlsx
@@ -1,26 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\Uni\2024\SEM 1\COMP3308\COMP3308-A1\A2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1972FEA-86ED-4E28-8321-A484496C1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+  <si>
+    <t>ZeroR</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1NN</t>
+  </si>
+  <si>
+    <t>5NN</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>My1NN</t>
+  </si>
+  <si>
+    <t>My5NN</t>
+  </si>
+  <si>
+    <t>MyNB</t>
+  </si>
+  <si>
+    <t>Pima</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
+  <si>
+    <t>Accuracy(%)</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +98,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +137,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2991E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2991E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2991E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +449,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>65.19</v>
+      </c>
+      <c r="C2">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="D2">
+        <v>69.75</v>
+      </c>
+      <c r="E2">
+        <v>75.62</v>
+      </c>
+      <c r="F2">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="G2">
+        <v>74.58</v>
+      </c>
+      <c r="H2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J2">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>81.27</v>
+      </c>
+      <c r="C3">
+        <v>98.47</v>
+      </c>
+      <c r="D3">
+        <v>99.51</v>
+      </c>
+      <c r="E3">
+        <v>99.51</v>
+      </c>
+      <c r="F3">
+        <v>96.79</v>
+      </c>
+      <c r="G3">
+        <v>99.51</v>
+      </c>
+      <c r="H3">
+        <v>99.31</v>
+      </c>
+      <c r="I3">
+        <v>98.42</v>
+      </c>
+      <c r="J3">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>65.19</v>
+      </c>
+      <c r="C10">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="D10">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="E10">
+        <v>74.97</v>
+      </c>
+      <c r="F10">
+        <v>76.66</v>
+      </c>
+      <c r="G10">
+        <v>75.23</v>
+      </c>
+      <c r="H10">
+        <v>77.7</v>
+      </c>
+      <c r="I10">
+        <v>77.05</v>
+      </c>
+      <c r="J10">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>81.27</v>
+      </c>
+      <c r="C11">
+        <v>98.47</v>
+      </c>
+      <c r="D11">
+        <v>99.6</v>
+      </c>
+      <c r="E11">
+        <v>99.46</v>
+      </c>
+      <c r="F11">
+        <v>98.47</v>
+      </c>
+      <c r="G11">
+        <v>99.6</v>
+      </c>
+      <c r="H11">
+        <v>98.96</v>
+      </c>
+      <c r="I11">
+        <v>98.42</v>
+      </c>
+      <c r="J11">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B2-B10</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="0">C2-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>D2-D10</f>
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-1.9500000000000028</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.65000000000000568</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-2.6000000000000085</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-0.64999999999999147</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2.9899999999999949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B3-B11</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:J14" si="1">C3-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-1.6799999999999926</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000853</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A2/WEKA DATA.xlsx
+++ b/A2/WEKA DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\Uni\2024\SEM 1\COMP3308\COMP3308-A1\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1972FEA-86ED-4E28-8321-A484496C1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F84769-D14D-46DB-A4B7-F239B26C76D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>ZeroR</t>
   </si>
@@ -84,13 +84,31 @@
   </si>
   <si>
     <t>CFS</t>
+  </si>
+  <si>
+    <t>Classifers</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Pima (CFS)</t>
+  </si>
+  <si>
+    <t>Occupancy (CFS)</t>
+  </si>
+  <si>
+    <t>Delta Pima</t>
+  </si>
+  <si>
+    <t>Delta Occupancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +132,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +174,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -157,11 +221,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +354,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +994,262 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5">
+        <v>65.19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="D20" s="5">
+        <v>69.75</v>
+      </c>
+      <c r="E20" s="5">
+        <v>75.62</v>
+      </c>
+      <c r="F20" s="5">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="G20" s="5">
+        <v>74.58</v>
+      </c>
+      <c r="H20" s="5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I20" s="5">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J20" s="5">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
+        <v>81.27</v>
+      </c>
+      <c r="C21" s="5">
+        <v>98.47</v>
+      </c>
+      <c r="D21" s="5">
+        <v>99.51</v>
+      </c>
+      <c r="E21" s="5">
+        <v>99.51</v>
+      </c>
+      <c r="F21" s="5">
+        <v>96.79</v>
+      </c>
+      <c r="G21" s="5">
+        <v>99.51</v>
+      </c>
+      <c r="H21" s="5">
+        <v>99.31</v>
+      </c>
+      <c r="I21" s="5">
+        <v>98.42</v>
+      </c>
+      <c r="J21" s="5">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>65.19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="D22" s="5">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="E22" s="5">
+        <v>74.97</v>
+      </c>
+      <c r="F22" s="5">
+        <v>76.66</v>
+      </c>
+      <c r="G22" s="5">
+        <v>75.23</v>
+      </c>
+      <c r="H22" s="5">
+        <v>77.7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>77.05</v>
+      </c>
+      <c r="J22" s="5">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>81.27</v>
+      </c>
+      <c r="C23" s="5">
+        <v>98.47</v>
+      </c>
+      <c r="D23" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>99.46</v>
+      </c>
+      <c r="F23" s="5">
+        <v>98.47</v>
+      </c>
+      <c r="G23" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>98.96</v>
+      </c>
+      <c r="I23" s="5">
+        <v>98.42</v>
+      </c>
+      <c r="J23" s="5">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-1.9500000000000028</v>
+      </c>
+      <c r="G24" s="17">
+        <v>-0.65000000000000568</v>
+      </c>
+      <c r="H24" s="17">
+        <v>-2.6000000000000085</v>
+      </c>
+      <c r="I24" s="17">
+        <v>-0.64999999999999147</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2.9899999999999949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="E25" s="17">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F25" s="17">
+        <v>-1.6799999999999926</v>
+      </c>
+      <c r="G25" s="17">
+        <v>-8.99999999999892E-2</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.35000000000000853</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B19:J19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
